--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hc-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hc-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>C5ar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,45 +537,45 @@
         <v>0.8924259999999999</v>
       </c>
       <c r="I2">
-        <v>0.9510922214987045</v>
+        <v>0.8736649195182647</v>
       </c>
       <c r="J2">
-        <v>0.9510922214987045</v>
+        <v>0.8736649195182647</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>88.84215833333333</v>
+        <v>0.1949616666666667</v>
       </c>
       <c r="N2">
-        <v>266.526475</v>
+        <v>0.584885</v>
       </c>
       <c r="O2">
-        <v>0.9957536651060204</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9957536651060206</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>26.42835066426111</v>
+        <v>0.05799628677888889</v>
       </c>
       <c r="R2">
-        <v>237.85515597835</v>
+        <v>0.5219665810099999</v>
       </c>
       <c r="S2">
-        <v>0.947053565411162</v>
+        <v>0.8736649195182647</v>
       </c>
       <c r="T2">
-        <v>0.9470535654111621</v>
+        <v>0.8736649195182647</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -596,16 +593,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2974753333333333</v>
+        <v>0.043016</v>
       </c>
       <c r="H3">
-        <v>0.8924259999999999</v>
+        <v>0.129048</v>
       </c>
       <c r="I3">
-        <v>0.9510922214987045</v>
+        <v>0.1263350804817352</v>
       </c>
       <c r="J3">
-        <v>0.9510922214987045</v>
+        <v>0.1263350804817352</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,270 +617,22 @@
         <v>0.584885</v>
       </c>
       <c r="O3">
-        <v>0.00218515396046691</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.00218515396046691</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.05799628677888889</v>
+        <v>0.008386471053333334</v>
       </c>
       <c r="R3">
-        <v>0.5219665810099999</v>
+        <v>0.07547823948</v>
       </c>
       <c r="S3">
-        <v>0.002078282934577166</v>
+        <v>0.1263350804817352</v>
       </c>
       <c r="T3">
-        <v>0.002078282934577166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.2974753333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.8924259999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.9510922214987045</v>
-      </c>
-      <c r="J4">
-        <v>0.9510922214987045</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.1839006666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.551702</v>
-      </c>
-      <c r="O4">
-        <v>0.002061180933512596</v>
-      </c>
-      <c r="P4">
-        <v>0.002061180933512597</v>
-      </c>
-      <c r="Q4">
-        <v>0.05470591211688889</v>
-      </c>
-      <c r="R4">
-        <v>0.492353209052</v>
-      </c>
-      <c r="S4">
-        <v>0.001960373152965269</v>
-      </c>
-      <c r="T4">
-        <v>0.001960373152965269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.015297</v>
-      </c>
-      <c r="H5">
-        <v>0.045891</v>
-      </c>
-      <c r="I5">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="J5">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>88.84215833333333</v>
-      </c>
-      <c r="N5">
-        <v>266.526475</v>
-      </c>
-      <c r="O5">
-        <v>0.9957536651060204</v>
-      </c>
-      <c r="P5">
-        <v>0.9957536651060206</v>
-      </c>
-      <c r="Q5">
-        <v>1.359018496025</v>
-      </c>
-      <c r="R5">
-        <v>12.231166464225</v>
-      </c>
-      <c r="S5">
-        <v>0.04870009969485833</v>
-      </c>
-      <c r="T5">
-        <v>0.04870009969485834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.015297</v>
-      </c>
-      <c r="H6">
-        <v>0.045891</v>
-      </c>
-      <c r="I6">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="J6">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1949616666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.584885</v>
-      </c>
-      <c r="O6">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="P6">
-        <v>0.00218515396046691</v>
-      </c>
-      <c r="Q6">
-        <v>0.002982328615</v>
-      </c>
-      <c r="R6">
-        <v>0.026840957535</v>
-      </c>
-      <c r="S6">
-        <v>0.000106871025889744</v>
-      </c>
-      <c r="T6">
-        <v>0.0001068710258897441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.015297</v>
-      </c>
-      <c r="H7">
-        <v>0.045891</v>
-      </c>
-      <c r="I7">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="J7">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.1839006666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.551702</v>
-      </c>
-      <c r="O7">
-        <v>0.002061180933512596</v>
-      </c>
-      <c r="P7">
-        <v>0.002061180933512597</v>
-      </c>
-      <c r="Q7">
-        <v>0.002813128498</v>
-      </c>
-      <c r="R7">
-        <v>0.025318156482</v>
-      </c>
-      <c r="S7">
-        <v>0.0001008077805473274</v>
-      </c>
-      <c r="T7">
-        <v>0.0001008077805473274</v>
+        <v>0.1263350804817352</v>
       </c>
     </row>
   </sheetData>
